--- a/Scrapper Keywords.xlsx
+++ b/Scrapper Keywords.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="145">
   <si>
     <t>Company Name</t>
-  </si>
-  <si>
-    <t>Home Decor</t>
   </si>
   <si>
     <t>Abatement</t>
@@ -798,7 +795,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -824,15 +821,15 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
@@ -1150,23 +1147,23 @@
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B59" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1" t="s">
@@ -1274,23 +1271,23 @@
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B79" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1" t="s">
@@ -1500,15 +1497,15 @@
       <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B115" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="1" t="s">
@@ -1683,12 +1680,6 @@
         <v>144</v>
       </c>
       <c r="B144" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
-      <c r="A145" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scrapper Keywords.xlsx
+++ b/Scrapper Keywords.xlsx
@@ -19,7 +19,7 @@
     <t>Company Name</t>
   </si>
   <si>
-    <t>remodel</t>
+    <t>construction</t>
   </si>
 </sst>
 </file>

--- a/Scrapper Keywords.xlsx
+++ b/Scrapper Keywords.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Company Name</t>
+  </si>
+  <si>
+    <t>heat</t>
   </si>
   <si>
     <t>construction</t>
@@ -366,7 +369,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -388,6 +391,12 @@
       </c>
       <c r="B2" s="1"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
